--- a/outputs/outputWithFXD.xlsx
+++ b/outputs/outputWithFXD.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Measure</t>
   </si>
@@ -29,196 +29,67 @@
     <t>SD</t>
   </si>
   <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
     <t>Observations</t>
   </si>
   <si>
     <t>SIZE</t>
   </si>
   <si>
-    <t>10.3958333333333</t>
-  </si>
-  <si>
-    <t>10.64</t>
-  </si>
-  <si>
-    <t>1.45064612709183</t>
-  </si>
-  <si>
     <t>Sales</t>
   </si>
   <si>
-    <t>58732.4305555556</t>
-  </si>
-  <si>
-    <t>33979.5</t>
-  </si>
-  <si>
-    <t>65510.1706485677</t>
-  </si>
-  <si>
     <t>FSD</t>
   </si>
   <si>
     <t>FSTS</t>
   </si>
   <si>
-    <t>0.833986111111111</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>0.169786719264964</t>
-  </si>
-  <si>
     <t>Tobin's Q</t>
   </si>
   <si>
-    <t>1.88342592592593</t>
-  </si>
-  <si>
-    <t>1.545</t>
-  </si>
-  <si>
-    <t>1.21108458947326</t>
-  </si>
-  <si>
     <t>FXD</t>
   </si>
   <si>
     <t>Gross FXD</t>
   </si>
   <si>
-    <t>10020.2523148148</t>
-  </si>
-  <si>
-    <t>6175.5</t>
-  </si>
-  <si>
-    <t>13248.82048516</t>
-  </si>
-  <si>
     <t>DERIV</t>
   </si>
   <si>
-    <t>0.189506018518519</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.143804511721698</t>
-  </si>
-  <si>
     <t>R&amp;D/sales</t>
   </si>
   <si>
-    <t>0.0271418518518519</t>
-  </si>
-  <si>
-    <t>0.0079</t>
-  </si>
-  <si>
-    <t>0.060171870413947</t>
-  </si>
-  <si>
     <t>Leverage</t>
   </si>
   <si>
-    <t>0.63512037037037</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0.484428960738025</t>
-  </si>
-  <si>
     <t>Quick ratio</t>
   </si>
   <si>
-    <t>0.460476851851852</t>
-  </si>
-  <si>
-    <t>0.2085</t>
-  </si>
-  <si>
-    <t>0.586043914079067</t>
-  </si>
-  <si>
     <t>Capex/sales</t>
   </si>
   <si>
-    <t>0.225111111111111</t>
-  </si>
-  <si>
-    <t>0.034</t>
-  </si>
-  <si>
-    <t>0.91513258242227</t>
-  </si>
-  <si>
     <t>ROA </t>
   </si>
   <si>
-    <t>0.0794162037037037</t>
-  </si>
-  <si>
-    <t>0.067</t>
-  </si>
-  <si>
-    <t>0.0813667732107548</t>
-  </si>
-  <si>
     <t>DD</t>
   </si>
   <si>
-    <t>0.953703703703704</t>
-  </si>
-  <si>
-    <t>0.21061413010568</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>0.296296296296296</t>
-  </si>
-  <si>
-    <t>0.457683942115014</t>
-  </si>
-  <si>
     <t>DE</t>
   </si>
   <si>
-    <t>-107.285648148148</t>
-  </si>
-  <si>
-    <t>-20.5</t>
-  </si>
-  <si>
-    <t>1284.0078949723</t>
-  </si>
-  <si>
     <t>DDE</t>
   </si>
   <si>
-    <t>0.398148148148148</t>
-  </si>
-  <si>
-    <t>0.518312374427745</t>
-  </si>
-  <si>
     <t>Tobin's Q (ln)</t>
-  </si>
-  <si>
-    <t>0.501971609787258</t>
-  </si>
-  <si>
-    <t>0.435018673678347</t>
-  </si>
-  <si>
-    <t>0.477147856072222</t>
   </si>
 </sst>
 </file>
@@ -315,10 +186,10 @@
     <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="13" sqref="B2:D3 B5:E6 B8:B19 C8:C14 C17 C19 D8:D19 E2:F2 E12 E14 E19:F19 F6 F9:F14 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -327,8 +198,10 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9234693877551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9336734693878"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9540816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -347,44 +220,62 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
+      <c r="B2" s="0" t="n">
+        <v>10.3958333333333</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1.45064612709183</v>
       </c>
       <c r="E2" s="0" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>216</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>58732.4305555556</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>33979.5</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>65510.1706485677</v>
       </c>
       <c r="E3" s="0" t="n">
+        <v>523</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>310348</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>216</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -396,46 +287,64 @@
         <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <v>216</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.833986111111111</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.169786719264964</v>
       </c>
       <c r="E5" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <v>216</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1.88342592592593</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.545</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1.21108458947326</v>
       </c>
       <c r="E6" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>8.14</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <v>216</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -447,210 +356,288 @@
         <v>0</v>
       </c>
       <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>216</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>10020.2523148148</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>6175.5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>13248.82048516</v>
       </c>
       <c r="E8" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>123253</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>216</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.335231481481481</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.730901922685734</v>
       </c>
       <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <v>216</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.0271418518518519</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.060171870413947</v>
       </c>
       <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G10" s="0" t="n">
         <v>216</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.63512037037037</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.484428960738025</v>
       </c>
       <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G11" s="0" t="n">
         <v>216</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.460476851851852</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.2085</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.586043914079067</v>
       </c>
       <c r="E12" s="0" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <v>216</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>46</v>
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.225111111111111</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.91513258242227</v>
       </c>
       <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <v>216</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.0794162037037037</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.0813667732107548</v>
       </c>
       <c r="E14" s="0" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <v>216</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>52</v>
+        <v>20</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.953703703703704</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>53</v>
+      <c r="D15" s="0" t="n">
+        <v>0.21061413010568</v>
       </c>
       <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <v>216</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>55</v>
+        <v>21</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.296296296296296</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>56</v>
+      <c r="D16" s="0" t="n">
+        <v>0.457683942115014</v>
       </c>
       <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <v>216</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>60</v>
+        <v>22</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>-107.285648148148</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>-20.5</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1284.0078949723</v>
       </c>
       <c r="E17" s="0" t="n">
+        <v>-5025</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>6200</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <v>216</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>62</v>
+        <v>23</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.398148148148148</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>63</v>
+      <c r="D18" s="0" t="n">
+        <v>0.518312374427745</v>
       </c>
       <c r="E18" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="n">
         <v>216</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>67</v>
+        <v>24</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.501971609787258</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.435018673678347</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.477147856072222</v>
       </c>
       <c r="E19" s="0" t="n">
+        <v>-0.7339691750802</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2.09679018001445</v>
+      </c>
+      <c r="G19" s="0" t="n">
         <v>216</v>
       </c>
     </row>

--- a/outputs/outputWithFXD.xlsx
+++ b/outputs/outputWithFXD.xlsx
@@ -189,17 +189,16 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="13" sqref="B2:D3 B5:E6 B8:B19 C8:C14 C17 C19 D8:D19 E2:F2 E12 E14 E19:F19 F6 F9:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2908163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9336734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9540816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9540816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0051020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9540816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5612244897959"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1581632653061"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
@@ -232,13 +231,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>10.3958333333333</v>
+        <v>10.3958333333</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>10.64</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1.45064612709183</v>
+        <v>1.4506461271</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>6.57</v>
@@ -301,13 +300,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.833986111111111</v>
+        <v>0.8339861111</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0.93</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.169786719264964</v>
+        <v>0.1697867193</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0.33</v>
@@ -324,13 +323,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1.88342592592593</v>
+        <v>1.8834259259</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1.545</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1.21108458947326</v>
+        <v>1.2110845895</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0.48</v>
@@ -393,13 +392,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.335231481481481</v>
+        <v>0.3352314815</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0.16</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.730901922685734</v>
+        <v>0.7309019227</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
@@ -416,13 +415,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.0271418518518519</v>
+        <v>0.0271418519</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0.0079</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.060171870413947</v>
+        <v>0.0601718704</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
@@ -439,13 +438,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.63512037037037</v>
+        <v>0.6351203704</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0.58</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.484428960738025</v>
+        <v>0.4844289607</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
@@ -462,13 +461,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.460476851851852</v>
+        <v>0.4604768519</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0.2085</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.586043914079067</v>
+        <v>0.5860439141</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0.021</v>
@@ -485,13 +484,13 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.225111111111111</v>
+        <v>0.2251111111</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0.034</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.91513258242227</v>
+        <v>0.9151325824</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
@@ -508,13 +507,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.0794162037037037</v>
+        <v>0.0794162037</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0.067</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.0813667732107548</v>
+        <v>0.0813667732</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>-0.35</v>
@@ -531,13 +530,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.953703703703704</v>
+        <v>0.9537037037</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.21061413010568</v>
+        <v>0.2106141301</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
@@ -554,13 +553,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.296296296296296</v>
+        <v>0.2962962963</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.457683942115014</v>
+        <v>0.4576839421</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
@@ -577,7 +576,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>-107.285648148148</v>
+        <v>-107.2856481481</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>-20.5</v>
@@ -600,16 +599,16 @@
         <v>23</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.398148148148148</v>
+        <v>0.412037037</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.518312374427745</v>
+        <v>0.4933450309</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -623,19 +622,19 @@
         <v>24</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.501971609787258</v>
+        <v>0.5019716098</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0.435018673678347</v>
+        <v>0.4350186737</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.477147856072222</v>
+        <v>0.4771478561</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-0.7339691750802</v>
+        <v>-0.7339691751</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>2.09679018001445</v>
+        <v>2.09679018</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>216</v>
